--- a/Project1/Project1/Stage03.xlsx
+++ b/Project1/Project1/Stage03.xlsx
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>1</v>
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL3" s="1">
         <v>1</v>
@@ -1517,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL4" s="1">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="AG6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH6" s="1">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="AI6" s="1">
         <v>97</v>
@@ -2133,7 +2133,7 @@
         <v>97</v>
       </c>
       <c r="AK6" s="1">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="1">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1">
         <v>0</v>
